--- a/biology/Médecine/Loi_de_Starling/Loi_de_Starling.xlsx
+++ b/biology/Médecine/Loi_de_Starling/Loi_de_Starling.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -506,7 +518,9 @@
           <t>Loi de Starling (cardiologie)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La loi de Starling décrit le fonctionnement du ventricule cardiaque.
 Le cœur s'adapte à la précharge en changeant sa force de contractilité. Ainsi la force contractile libérée à la systole est fonction directe du degré d'étirement de sa fibre myocardique à la diastole jusqu'à un point critique qui correspond à une longueur fixe du sarcomère du muscle cardiaque.
@@ -539,7 +553,9 @@
           <t>Loi de Starling (néphrologie)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En néphrologie, l'équation de Starling décrit la pression glomérulaire dépend de la pression hydrostatique et de la pression oncotique
               Q
